--- a/Release/Rev1/Bill of Materials/Bill of Materials-Drone.xlsx
+++ b/Release/Rev1/Bill of Materials/Bill of Materials-Drone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akash\Desktop\Altium\Drone\Release\Rev1\Bill of Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CDEDA92-FA5F-42BA-A590-42BBABC7DF41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9951B3DE-BA85-4711-9566-4FFFD4E1EFD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="25800" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
